--- a/R Scripts/Dataset/CRQ2_2.xlsx
+++ b/R Scripts/Dataset/CRQ2_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edusm\OneDrive\Documentos\uff\dissertacao\git\feature-toggles\R Scripts\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_C556CE93FAF7318AE3A5F982FCDC1529B9D54EE6" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{19A313FB-BF3F-4BFC-A23A-71947662A2CD}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="11_C556CE93FAF7318AE3A5F982FCDC1529B9D54EE6" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{A2B46AD8-DB2B-4362-B77B-B57840294F2B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,10 +30,10 @@
     <t>id</t>
   </si>
   <si>
-    <t>ESFORÇO MÉDIO S _FW</t>
+    <t>AVERAGE_EFFORT_PER_MERGE_WO_FT</t>
   </si>
   <si>
-    <t>ESFORÇO MÉDIO C _FW</t>
+    <t>AVERAGE_EFFORT_PER_MERGE_WITH_FT</t>
   </si>
 </sst>
 </file>
@@ -379,13 +379,14 @@
   <dimension ref="A1:C134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection sqref="A1:C134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">

--- a/R Scripts/Dataset/CRQ2_2.xlsx
+++ b/R Scripts/Dataset/CRQ2_2.xlsx
@@ -1,21 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edusm\OneDrive\Documentos\uff\dissertacao\git\feature-toggles\R Scripts\Dataset\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="11_C556CE93FAF7318AE3A5F982FCDC1529B9D54EE6" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{A2B46AD8-DB2B-4362-B77B-B57840294F2B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$D$134</definedName>
+  </definedNames>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="10">
   <si>
     <t>id</t>
   </si>
@@ -35,11 +32,32 @@
   <si>
     <t>AVERAGE_EFFORT_PER_MERGE_WITH_FT</t>
   </si>
+  <si>
+    <t>Linguagem</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>java</t>
+  </si>
+  <si>
+    <t>Ruby</t>
+  </si>
+  <si>
+    <t>Javascript</t>
+  </si>
+  <si>
+    <t>c#</t>
+  </si>
+  <si>
+    <t>PHP</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -156,7 +174,7 @@
     </a:clrScheme>
     <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -191,7 +209,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -368,1502 +386,1906 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C134"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C134"/>
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="37" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>347655</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
         <v>4.2918454935622317E-3</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>5.4078239608801955</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>489645</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
         <v>0.39189189189189189</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.13011152416356878</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>806511</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
         <v>0.59940059940059942</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>2.6548672566371681E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1059929</v>
       </c>
-      <c r="B5">
-        <v>0</v>
+      <c r="B5" t="s">
+        <v>5</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1217077</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6">
         <v>0.59940059940059942</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>2.8571428571428571E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1338040</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
         <v>0.5864709636247607</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>0.24054054054054055</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1352520</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
         <v>0.52892561983471076</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>0.19093972295020592</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1722606</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9">
         <v>2.4840425531914891</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>0.26829268292682928</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1799884</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10">
         <v>0.53333333333333333</v>
       </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1848736</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11">
         <v>0.125</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2263742</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12">
         <v>3.2079646017699116E-2</v>
       </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2386842</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13">
         <v>0.59940059940059942</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>2.8846153846153848E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2392358</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14">
         <v>0.61904761904761907</v>
       </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2416064</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15">
         <v>0.15045395590142671</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>1.1260053619302948E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2723436</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16">
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>0.23076923076923078</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2987495</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17">
         <v>12.181818181818182</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>13.619047619047619</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>4494078</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18">
         <v>43.133333333333333</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>4693087</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19">
         <v>13.144050104384133</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>1.4492753623188406E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>5021616</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20">
         <v>0.59940059940059942</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>2.6548672566371681E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>5144181</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21">
         <v>0.39130434782608697</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>5197539</v>
       </c>
-      <c r="B22">
-        <v>0</v>
+      <c r="B22" t="s">
+        <v>4</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>5203368</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23">
         <v>222.125</v>
       </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>5287954</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24">
         <v>0.59940059940059942</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>2.6548672566371681E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>5421677</v>
       </c>
-      <c r="B25">
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25">
         <v>24.310344827586206</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>5541660</v>
       </c>
-      <c r="B26">
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26">
         <v>1.3596491228070176</v>
       </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>6388572</v>
       </c>
-      <c r="B27">
-        <v>0</v>
+      <c r="B27" t="s">
+        <v>6</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>7358191</v>
       </c>
-      <c r="B28">
+      <c r="B28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28">
         <v>15</v>
       </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>8884773</v>
       </c>
-      <c r="B29">
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29">
         <v>0.16470588235294117</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>3.4482758620689655E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>10199599</v>
       </c>
-      <c r="B30">
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30">
         <v>2.3520780456852792</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>0.64090909090909087</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>10391073</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31">
         <v>1.1155105057544081</v>
       </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>10934610</v>
       </c>
-      <c r="B32">
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32">
         <v>1.1538461538461537</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>2.6923076923076925</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>11246402</v>
       </c>
-      <c r="B33">
-        <v>0</v>
+      <c r="B33" t="s">
+        <v>6</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>11671912</v>
       </c>
-      <c r="B34">
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34">
         <v>2.453125</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>5.8823529411764705E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>13633443</v>
       </c>
-      <c r="B35">
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35">
         <v>3.6832412523020259E-3</v>
       </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>15008139</v>
       </c>
-      <c r="B36">
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36">
         <v>1486.75</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>0.29166666666666669</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>15344614</v>
       </c>
-      <c r="B37">
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37">
         <v>1.9210526315789473</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>2.9</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>16416867</v>
       </c>
-      <c r="B38">
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38">
         <v>4.329004329004329E-3</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>4.4588976377952756</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>16827151</v>
       </c>
-      <c r="B39">
+      <c r="B39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39">
         <v>9</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>6.2200956937799042E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>17164513</v>
       </c>
-      <c r="B40">
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40">
         <v>1.3761467889908258E-2</v>
       </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>18625008</v>
       </c>
-      <c r="B41">
-        <v>0</v>
+      <c r="B41" t="s">
+        <v>4</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>19272646</v>
       </c>
-      <c r="B42">
+      <c r="B42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42">
         <v>5.4</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>0.19230769230769232</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>19695722</v>
       </c>
-      <c r="B43">
+      <c r="B43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43">
         <v>5.2536585365853661</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <v>1.536</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>20538228</v>
       </c>
-      <c r="B44">
+      <c r="B44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44">
         <v>0.32142857142857145</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <v>1.4884979702300407E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>20767408</v>
       </c>
-      <c r="B45">
+      <c r="B45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45">
         <v>5.2631578947368418E-2</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <v>0.9642857142857143</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>22128680</v>
       </c>
-      <c r="B46">
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46">
         <v>1.78125</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <v>0.8571428571428571</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>24676571</v>
       </c>
-      <c r="B47">
-        <v>0</v>
+      <c r="B47" t="s">
+        <v>7</v>
       </c>
       <c r="C47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>24728203</v>
       </c>
-      <c r="B48">
+      <c r="B48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48">
         <v>0.83620689655172409</v>
       </c>
-      <c r="C48">
+      <c r="D48">
         <v>29.244791666666668</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>24850244</v>
       </c>
-      <c r="B49">
+      <c r="B49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49">
         <v>24.310344827586206</v>
       </c>
-      <c r="C49">
+      <c r="D49">
         <v>2.4444444444444446</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>24998407</v>
       </c>
-      <c r="B50">
+      <c r="B50" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50">
         <v>0.13469387755102041</v>
       </c>
-      <c r="C50">
+      <c r="D50">
         <v>2.197802197802198E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>25745061</v>
       </c>
-      <c r="B51">
+      <c r="B51" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51">
         <v>0.70987654320987659</v>
       </c>
-      <c r="C51">
+      <c r="D51">
         <v>1.0654761904761905</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>26113177</v>
       </c>
-      <c r="B52">
-        <v>0</v>
+      <c r="B52" t="s">
+        <v>7</v>
       </c>
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>26767408</v>
       </c>
-      <c r="B53">
+      <c r="B53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53">
         <v>2.333931777378815E-2</v>
       </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>27058591</v>
       </c>
-      <c r="B54">
+      <c r="B54" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54">
         <v>0.39189189189189189</v>
       </c>
-      <c r="C54">
+      <c r="D54">
         <v>1.05</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>28054380</v>
       </c>
-      <c r="B55">
+      <c r="B55" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55">
         <v>2.7577639751552794</v>
       </c>
-      <c r="C55">
+      <c r="D55">
         <v>0.1554054054054054</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>29340261</v>
       </c>
-      <c r="B56">
+      <c r="B56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56">
         <v>1.9310344827586208</v>
       </c>
-      <c r="C56">
+      <c r="D56">
         <v>17.71361502347418</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>29364795</v>
       </c>
-      <c r="B57">
+      <c r="B57" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57">
         <v>0.39189189189189189</v>
       </c>
-      <c r="C57">
+      <c r="D57">
         <v>1.4</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>30175039</v>
       </c>
-      <c r="B58">
-        <v>0</v>
+      <c r="B58" t="s">
+        <v>4</v>
       </c>
       <c r="C58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>31377627</v>
       </c>
-      <c r="B59">
+      <c r="B59" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59">
         <v>5.4</v>
       </c>
-      <c r="C59">
+      <c r="D59">
         <v>0.19230769230769232</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>32340528</v>
       </c>
-      <c r="B60">
+      <c r="B60" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60">
         <v>0.61538461538461542</v>
       </c>
-      <c r="C60">
+      <c r="D60">
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>34396268</v>
       </c>
-      <c r="B61">
-        <v>0</v>
+      <c r="B61" t="s">
+        <v>4</v>
       </c>
       <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
         <v>0.47368421052631576</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>35300278</v>
       </c>
-      <c r="B62">
-        <v>0</v>
+      <c r="B62" t="s">
+        <v>7</v>
       </c>
       <c r="C62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>35489525</v>
       </c>
-      <c r="B63">
+      <c r="B63" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63">
         <v>0.26618705035971224</v>
       </c>
-      <c r="C63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>39788762</v>
       </c>
-      <c r="B64">
+      <c r="B64" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64">
         <v>21.599415204678362</v>
       </c>
-      <c r="C64">
+      <c r="D64">
         <v>1.1194029850746268E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>42480983</v>
       </c>
-      <c r="B65">
-        <v>0</v>
+      <c r="B65" t="s">
+        <v>7</v>
       </c>
       <c r="C65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>42585709</v>
       </c>
-      <c r="B66">
+      <c r="B66" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66">
         <v>9</v>
       </c>
-      <c r="C66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>42682761</v>
       </c>
-      <c r="B67">
+      <c r="B67" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67">
         <v>1.6388888888888888</v>
       </c>
-      <c r="C67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>45260412</v>
       </c>
-      <c r="B68">
-        <v>0</v>
+      <c r="B68" t="s">
+        <v>4</v>
       </c>
       <c r="C68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>45931203</v>
       </c>
-      <c r="B69">
+      <c r="B69" t="s">
+        <v>4</v>
+      </c>
+      <c r="C69">
         <v>0.39189189189189189</v>
       </c>
-      <c r="C69">
+      <c r="D69">
         <v>0.11764705882352941</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>47632133</v>
       </c>
-      <c r="B70">
+      <c r="B70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70">
         <v>6.6520376175548588</v>
       </c>
-      <c r="C70">
+      <c r="D70">
         <v>8.0277777777777786</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>49892996</v>
       </c>
-      <c r="B71">
-        <v>0</v>
+      <c r="B71" t="s">
+        <v>6</v>
       </c>
       <c r="C71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>50365703</v>
       </c>
-      <c r="B72">
+      <c r="B72" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72">
         <v>0.14678899082568808</v>
       </c>
-      <c r="C72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>50667950</v>
       </c>
-      <c r="B73">
+      <c r="B73" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73">
         <v>0.67432950191570884</v>
       </c>
-      <c r="C73">
+      <c r="D73">
         <v>0.18571428571428572</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>51774067</v>
       </c>
-      <c r="B74">
-        <v>0</v>
+      <c r="B74" t="s">
+        <v>7</v>
       </c>
       <c r="C74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>53135203</v>
       </c>
-      <c r="B75">
+      <c r="B75" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75">
         <v>0.1</v>
       </c>
-      <c r="C75">
+      <c r="D75">
         <v>2.1666666666666665</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>53534987</v>
       </c>
-      <c r="B76">
+      <c r="B76" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76">
         <v>1.8333333333333333</v>
       </c>
-      <c r="C76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>54648215</v>
       </c>
-      <c r="B77">
+      <c r="B77" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77">
         <v>2.3322422258592472</v>
       </c>
-      <c r="C77">
+      <c r="D77">
         <v>2.6606851549755302</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>62129589</v>
       </c>
-      <c r="B78">
+      <c r="B78" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78">
         <v>0.5</v>
       </c>
-      <c r="C78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>68407220</v>
       </c>
-      <c r="B79">
+      <c r="B79" t="s">
+        <v>4</v>
+      </c>
+      <c r="C79">
         <v>0.61290322580645162</v>
       </c>
-      <c r="C79">
+      <c r="D79">
         <v>4.3478260869565216E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>68464903</v>
       </c>
-      <c r="B80">
+      <c r="B80" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80">
         <v>0.5864709636247607</v>
       </c>
-      <c r="C80">
+      <c r="D80">
         <v>0.27039274924471302</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>69359362</v>
       </c>
-      <c r="B81">
+      <c r="B81" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81">
         <v>0.41807909604519772</v>
       </c>
-      <c r="C81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>71187431</v>
       </c>
-      <c r="B82">
-        <v>0</v>
+      <c r="B82" t="s">
+        <v>7</v>
       </c>
       <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
         <v>1.7068965517241379</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>71376869</v>
       </c>
-      <c r="B83">
+      <c r="B83" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83">
         <v>2.3913043478260869</v>
       </c>
-      <c r="C83">
+      <c r="D83">
         <v>0.125</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>71501855</v>
       </c>
-      <c r="B84">
+      <c r="B84" t="s">
+        <v>4</v>
+      </c>
+      <c r="C84">
         <v>0.75</v>
       </c>
-      <c r="C84">
+      <c r="D84">
         <v>0.92391304347826086</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>72233269</v>
       </c>
-      <c r="B85">
+      <c r="B85" t="s">
+        <v>9</v>
+      </c>
+      <c r="C85">
         <v>1.0819672131147542</v>
       </c>
-      <c r="C85">
+      <c r="D85">
         <v>4.4545454545454541</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>72479761</v>
       </c>
-      <c r="B86">
+      <c r="B86" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86">
         <v>4.7619047619047616E-2</v>
       </c>
-      <c r="C86">
+      <c r="D86">
         <v>9.1836734693877556E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>73205358</v>
       </c>
-      <c r="B87">
+      <c r="B87" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87">
         <v>8.2528089887640448</v>
       </c>
-      <c r="C87">
+      <c r="D87">
         <v>2.6226415094339623</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>73714491</v>
       </c>
-      <c r="B88">
-        <v>0</v>
+      <c r="B88" t="s">
+        <v>4</v>
       </c>
       <c r="C88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>74074978</v>
       </c>
-      <c r="B89">
-        <v>0</v>
+      <c r="B89" t="s">
+        <v>4</v>
       </c>
       <c r="C89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>75758799</v>
       </c>
-      <c r="B90">
+      <c r="B90" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90">
         <v>23.914583333333333</v>
       </c>
-      <c r="C90">
+      <c r="D90">
         <v>1.4492753623188406E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>76819000</v>
       </c>
-      <c r="B91">
+      <c r="B91" t="s">
+        <v>4</v>
+      </c>
+      <c r="C91">
         <v>0.39189189189189189</v>
       </c>
-      <c r="C91">
+      <c r="D91">
         <v>0.13157894736842105</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>79148749</v>
       </c>
-      <c r="B92">
+      <c r="B92" t="s">
+        <v>5</v>
+      </c>
+      <c r="C92">
         <v>0.27272727272727271</v>
       </c>
-      <c r="C92">
+      <c r="D92">
         <v>1.4375</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>79465598</v>
       </c>
-      <c r="B93">
+      <c r="B93" t="s">
+        <v>4</v>
+      </c>
+      <c r="C93">
         <v>6.5084745762711869</v>
       </c>
-      <c r="C93">
+      <c r="D93">
         <v>5.0642570281124497</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>84507987</v>
       </c>
-      <c r="B94">
+      <c r="B94" t="s">
+        <v>4</v>
+      </c>
+      <c r="C94">
         <v>9.3728813559322042</v>
       </c>
-      <c r="C94">
+      <c r="D94">
         <v>10.895833333333334</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>86124349</v>
       </c>
-      <c r="B95">
+      <c r="B95" t="s">
+        <v>4</v>
+      </c>
+      <c r="C95">
         <v>6.5084745762711869</v>
       </c>
-      <c r="C95">
+      <c r="D95">
         <v>5.0642570281124497</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>86282367</v>
       </c>
-      <c r="B96">
+      <c r="B96" t="s">
+        <v>9</v>
+      </c>
+      <c r="C96">
         <v>0.26586102719033233</v>
       </c>
-      <c r="C96">
+      <c r="D96">
         <v>0.18181818181818182</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>89386914</v>
       </c>
-      <c r="B97">
+      <c r="B97" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97">
         <v>0.56142857142857139</v>
       </c>
-      <c r="C97">
+      <c r="D97">
         <v>0.96420047732696901</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>92938357</v>
       </c>
-      <c r="B98">
+      <c r="B98" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98">
         <v>0.56142857142857139</v>
       </c>
-      <c r="C98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>93316749</v>
       </c>
-      <c r="B99">
+      <c r="B99" t="s">
+        <v>5</v>
+      </c>
+      <c r="C99">
         <v>0.16176470588235295</v>
       </c>
-      <c r="C99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>94167681</v>
       </c>
-      <c r="B100">
+      <c r="B100" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100">
         <v>0.56142857142857139</v>
       </c>
-      <c r="C100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>95210715</v>
       </c>
-      <c r="B101">
+      <c r="B101" t="s">
+        <v>5</v>
+      </c>
+      <c r="C101">
         <v>0.5622317596566524</v>
       </c>
-      <c r="C101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>95443579</v>
       </c>
-      <c r="B102">
+      <c r="B102" t="s">
+        <v>5</v>
+      </c>
+      <c r="C102">
         <v>0.5622317596566524</v>
       </c>
-      <c r="C102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>96212237</v>
       </c>
-      <c r="B103">
+      <c r="B103" t="s">
+        <v>7</v>
+      </c>
+      <c r="C103">
         <v>7.6032009663294575</v>
       </c>
-      <c r="C103">
+      <c r="D103">
         <v>4.9673264965418555</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>96530667</v>
       </c>
-      <c r="B104">
+      <c r="B104" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104">
         <v>3.768389662027833</v>
       </c>
-      <c r="C104">
+      <c r="D104">
         <v>3.4545454545454546</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>97128753</v>
       </c>
-      <c r="B105">
+      <c r="B105" t="s">
+        <v>5</v>
+      </c>
+      <c r="C105">
         <v>10.239263803680982</v>
       </c>
-      <c r="C105">
+      <c r="D105">
         <v>0.36470588235294116</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>98575487</v>
       </c>
-      <c r="B106">
+      <c r="B106" t="s">
+        <v>4</v>
+      </c>
+      <c r="C106">
         <v>1.104641438427765</v>
       </c>
-      <c r="C106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>101262862</v>
       </c>
-      <c r="B107">
+      <c r="B107" t="s">
+        <v>5</v>
+      </c>
+      <c r="C107">
         <v>0.56303724928366761</v>
       </c>
-      <c r="C107">
+      <c r="D107">
         <v>1.4925373134328358E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>101472507</v>
       </c>
-      <c r="B108">
+      <c r="B108" t="s">
+        <v>5</v>
+      </c>
+      <c r="C108">
         <v>0.56303724928366761</v>
       </c>
-      <c r="C108">
+      <c r="D108">
         <v>1.4925373134328358E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>103996987</v>
       </c>
-      <c r="B109">
+      <c r="B109" t="s">
+        <v>7</v>
+      </c>
+      <c r="C109">
         <v>7.6032009663294575</v>
       </c>
-      <c r="C109">
+      <c r="D109">
         <v>4.9637750238322216</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>105359284</v>
       </c>
-      <c r="B110">
+      <c r="B110" t="s">
+        <v>5</v>
+      </c>
+      <c r="C110">
         <v>0.56303724928366761</v>
       </c>
-      <c r="C110">
+      <c r="D110">
         <v>2.9178082191780823</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>106851769</v>
       </c>
-      <c r="B111">
+      <c r="B111" t="s">
+        <v>5</v>
+      </c>
+      <c r="C111">
         <v>0.1</v>
       </c>
-      <c r="C111">
+      <c r="D111">
         <v>2.1666666666666665</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>107119628</v>
       </c>
-      <c r="B112">
+      <c r="B112" t="s">
+        <v>4</v>
+      </c>
+      <c r="C112">
         <v>1.1061446665968806</v>
       </c>
-      <c r="C112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>107367707</v>
       </c>
-      <c r="B113">
+      <c r="B113" t="s">
+        <v>5</v>
+      </c>
+      <c r="C113">
         <v>0.56303724928366761</v>
       </c>
-      <c r="C113">
+      <c r="D113">
         <v>2.9178082191780823</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>107553659</v>
       </c>
-      <c r="B114">
+      <c r="B114" t="s">
+        <v>5</v>
+      </c>
+      <c r="C114">
         <v>0.56303724928366761</v>
       </c>
-      <c r="C114">
+      <c r="D114">
         <v>2.7640449438202248</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>108414390</v>
       </c>
-      <c r="B115">
+      <c r="B115" t="s">
+        <v>5</v>
+      </c>
+      <c r="C115">
         <v>0.1</v>
       </c>
-      <c r="C115">
+      <c r="D115">
         <v>1.7333333333333334</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>111302009</v>
       </c>
-      <c r="B116">
+      <c r="B116" t="s">
+        <v>5</v>
+      </c>
+      <c r="C116">
         <v>0.1</v>
       </c>
-      <c r="C116">
+      <c r="D116">
         <v>1.5294117647058822</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>111772276</v>
       </c>
-      <c r="B117">
+      <c r="B117" t="s">
+        <v>5</v>
+      </c>
+      <c r="C117">
         <v>0.56465517241379315</v>
       </c>
-      <c r="C117">
+      <c r="D117">
         <v>2.3207547169811322</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>112953456</v>
       </c>
-      <c r="B118">
+      <c r="B118" t="s">
+        <v>5</v>
+      </c>
+      <c r="C118">
         <v>0.1</v>
       </c>
-      <c r="C118">
+      <c r="D118">
         <v>1.625</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>113795698</v>
       </c>
-      <c r="B119">
+      <c r="B119" t="s">
+        <v>5</v>
+      </c>
+      <c r="C119">
         <v>0.1</v>
       </c>
-      <c r="C119">
+      <c r="D119">
         <v>1.5294117647058822</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>116361990</v>
       </c>
-      <c r="B120">
+      <c r="B120" t="s">
+        <v>5</v>
+      </c>
+      <c r="C120">
         <v>0.56384505021520803</v>
       </c>
-      <c r="C120">
+      <c r="D120">
         <v>2.7640449438202248</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>116522779</v>
       </c>
-      <c r="B121">
+      <c r="B121" t="s">
+        <v>5</v>
+      </c>
+      <c r="C121">
         <v>0.1</v>
       </c>
-      <c r="C121">
+      <c r="D121">
         <v>1.368421052631579</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>117831469</v>
       </c>
-      <c r="B122">
+      <c r="B122" t="s">
+        <v>8</v>
+      </c>
+      <c r="C122">
         <v>18.869565217391305</v>
       </c>
-      <c r="C122">
+      <c r="D122">
         <v>10.727272727272727</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>117928513</v>
       </c>
-      <c r="B123">
+      <c r="B123" t="s">
+        <v>5</v>
+      </c>
+      <c r="C123">
         <v>0.1</v>
       </c>
-      <c r="C123">
+      <c r="D123">
         <v>1.625</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>118666777</v>
       </c>
-      <c r="B124">
+      <c r="B124" t="s">
+        <v>7</v>
+      </c>
+      <c r="C124">
         <v>0.6717557251908397</v>
       </c>
-      <c r="C124">
+      <c r="D124">
         <v>2.8224299065420562</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>119819922</v>
       </c>
-      <c r="B125">
-        <v>0</v>
+      <c r="B125" t="s">
+        <v>7</v>
       </c>
       <c r="C125">
+        <v>0</v>
+      </c>
+      <c r="D125">
         <v>2.9230769230769229</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>122414437</v>
       </c>
-      <c r="B126">
-        <v>0</v>
+      <c r="B126" t="s">
+        <v>4</v>
       </c>
       <c r="C126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>122976077</v>
       </c>
-      <c r="B127">
+      <c r="B127" t="s">
+        <v>6</v>
+      </c>
+      <c r="C127">
         <v>1.4504504504504505</v>
       </c>
-      <c r="C127">
+      <c r="D127">
         <v>0.2878787878787879</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>124034426</v>
       </c>
-      <c r="B128">
-        <v>0</v>
+      <c r="B128" t="s">
+        <v>4</v>
       </c>
       <c r="C128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>124245472</v>
       </c>
-      <c r="B129">
+      <c r="B129" t="s">
+        <v>5</v>
+      </c>
+      <c r="C129">
         <v>0.56465517241379315</v>
       </c>
-      <c r="C129">
+      <c r="D129">
         <v>1.0169971671388103</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>124260744</v>
       </c>
-      <c r="B130">
+      <c r="B130" t="s">
+        <v>5</v>
+      </c>
+      <c r="C130">
         <v>0.56465517241379315</v>
       </c>
-      <c r="C130">
+      <c r="D130">
         <v>1.0169971671388103</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>124907477</v>
       </c>
-      <c r="B131">
-        <v>0</v>
+      <c r="B131" t="s">
+        <v>4</v>
       </c>
       <c r="C131">
+        <v>0</v>
+      </c>
+      <c r="D131">
         <v>9.5153846153846153</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>126279499</v>
       </c>
-      <c r="B132">
-        <v>0</v>
+      <c r="B132" t="s">
+        <v>5</v>
       </c>
       <c r="C132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>126371844</v>
       </c>
-      <c r="B133">
+      <c r="B133" t="s">
+        <v>5</v>
+      </c>
+      <c r="C133">
         <v>0.56142857142857139</v>
       </c>
-      <c r="C133">
+      <c r="D133">
         <v>0.98774509803921573</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>127966163</v>
       </c>
-      <c r="B134">
+      <c r="B134" t="s">
+        <v>4</v>
+      </c>
+      <c r="C134">
         <v>1.0992406116716946</v>
       </c>
-      <c r="C134">
+      <c r="D134">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D134"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>